--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -2,14 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBE5790-8037-43EB-8880-21011F411B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,9 +51,6 @@
     <t>average_latency</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>[
   {
     "order_id": 1,
@@ -1825,12 +1836,15 @@
   }
 ]</t>
   </si>
+  <si>
+    <t>error_rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,7 +1879,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1877,8 +1891,1470 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error_rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>39.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>179.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>179.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00AE-4CD5-9E90-4755F4A6E5A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="688657839"/>
+        <c:axId val="688659279"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="688657839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688659279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="688659279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688657839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54C618F-3010-2F9F-9F8C-30FF59BAA1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2135,735 +3611,1489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="true" max="3" min="3" width="28.140625"/>
-    <col customWidth="true" max="4" min="4" width="52.42578125"/>
-    <col customWidth="true" max="5" min="5" width="16.85546875"/>
-    <col customWidth="true" max="6" min="6" width="19.7109375"/>
-    <col customWidth="true" max="7" min="7" width="15.5703125"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>(D2/C2-1)*100</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0.38351499999999999</v>
+      </c>
+      <c r="G2">
+        <v>260.74599428966275</v>
+      </c>
+      <c r="H2">
+        <v>3.5402435000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>(D3/C3-1)*100</f>
+        <v>120.00000000000001</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0.24231369999999999</v>
+      </c>
+      <c r="G3">
+        <v>412.68818065177499</v>
+      </c>
+      <c r="H3">
+        <v>1.968147E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>(D4/C4-1)*100</f>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0.46189140000000001</v>
+      </c>
+      <c r="G4">
+        <v>216.50110826917322</v>
+      </c>
+      <c r="H4">
+        <v>3.6395112E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>(D5/C5-1)*100</f>
+        <v>60.000000000000007</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.38561020000000001</v>
+      </c>
+      <c r="G5">
+        <v>259.32923973484105</v>
+      </c>
+      <c r="H5">
+        <v>2.8484533999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>(D6/C6-1)*100</f>
+        <v>60.000000000000007</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>0.27660390000000001</v>
+      </c>
+      <c r="G6">
+        <v>361.52780203026782</v>
+      </c>
+      <c r="H6">
+        <v>2.3537965000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>(D7/C7-1)*100</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0.2644725</v>
+      </c>
+      <c r="G7">
+        <v>378.11114577129945</v>
+      </c>
+      <c r="H7">
+        <v>2.3525414000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>(D8/C8-1)*100</f>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0.38593769999999999</v>
+      </c>
+      <c r="G8">
+        <v>259.10917746568941</v>
+      </c>
+      <c r="H8">
+        <v>2.9385116999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>0.383515</v>
-      </c>
-      <c r="F2">
-        <v>260.74599428966275</v>
-      </c>
-      <c r="G2">
-        <v>0.035402435</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B9">
+        <f>(D9/C9-1)*100</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>0.36623480000000003</v>
+      </c>
+      <c r="G9">
+        <v>273.04887465636796</v>
+      </c>
+      <c r="H9">
+        <v>3.1646274000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>(D10/C10-1)*100</f>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>0.35698990000000003</v>
+      </c>
+      <c r="G10">
+        <v>280.11996978065764</v>
+      </c>
+      <c r="H10">
+        <v>2.8212178000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>(D11/C11-1)*100</f>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0.36664449999999998</v>
+      </c>
+      <c r="G11">
+        <v>272.74376132738934</v>
+      </c>
+      <c r="H11">
+        <v>3.2620346000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B12">
+        <f>(D12/C12-1)*100</f>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>0.1292905</v>
+      </c>
+      <c r="G12">
+        <v>77.345203243857824</v>
+      </c>
+      <c r="H12">
+        <v>8.3002329999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>(D13/C13-1)*100</f>
+        <v>60.000000000000007</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>0.13061519999999999</v>
+      </c>
+      <c r="G13">
+        <v>76.560767812628242</v>
+      </c>
+      <c r="H13">
+        <v>0.1062318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>(D14/C14-1)*100</f>
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>0.2423137</v>
-      </c>
-      <c r="F3">
-        <v>412.688180651775</v>
-      </c>
-      <c r="G3">
-        <v>0.01968147</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>0.19840459999999999</v>
+      </c>
+      <c r="G14">
+        <v>50.402057210367104</v>
+      </c>
+      <c r="H14">
+        <v>0.14829344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>(D15/C15-1)*100</f>
+        <v>60.000000000000007</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>0.18162819999999999</v>
+      </c>
+      <c r="G15">
+        <v>55.057529612692306</v>
+      </c>
+      <c r="H15">
+        <v>0.12915811999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>(D16/C16-1)*100</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>0.15141279999999999</v>
+      </c>
+      <c r="G16">
+        <v>66.044614457958644</v>
+      </c>
+      <c r="H16">
+        <v>0.12205357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>(D17/C17-1)*100</f>
+        <v>60.000000000000007</v>
+      </c>
+      <c r="C17">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>0.15018480000000001</v>
+      </c>
+      <c r="G17">
+        <v>66.584634397089445</v>
+      </c>
+      <c r="H17">
+        <v>0.10635915999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>(D18/C18-1)*100</f>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0.4618914</v>
-      </c>
-      <c r="F4">
-        <v>216.50110826917322</v>
-      </c>
-      <c r="G4">
-        <v>0.036395112</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>0.13643449999999999</v>
+      </c>
+      <c r="G18">
+        <v>73.295244238077615</v>
+      </c>
+      <c r="H18">
+        <v>8.7059960000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f>(D19/C19-1)*100</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>0.13151969999999999</v>
+      </c>
+      <c r="G19">
+        <v>76.034236696099526</v>
+      </c>
+      <c r="H19">
+        <v>0.10262504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f>(D20/C20-1)*100</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>0.2037494</v>
+      </c>
+      <c r="G20">
+        <v>49.079899130991308</v>
+      </c>
+      <c r="H20">
+        <v>0.14673755999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>(D21/C21-1)*100</f>
+        <v>60.000000000000007</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0.3856102</v>
-      </c>
-      <c r="F5">
-        <v>259.32923973484105</v>
-      </c>
-      <c r="G5">
-        <v>0.028484534</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <v>0.1454809</v>
+      </c>
+      <c r="G21">
+        <v>68.737545615953707</v>
+      </c>
+      <c r="H21">
+        <v>8.5663169999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f>(D22/C22-1)*100</f>
+        <v>60.000000000000007</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>1.5172617000000002</v>
+      </c>
+      <c r="G22">
+        <v>659.08208188475328</v>
+      </c>
+      <c r="H22">
+        <v>1.449599E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>(D23/C23-1)*100</f>
+        <v>60.000000000000007</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>1.3069169999999999</v>
+      </c>
+      <c r="G23">
+        <v>765.15953193661119</v>
+      </c>
+      <c r="H23">
+        <v>1.2808795E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f>(D24/C24-1)*100</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>1.5643821</v>
+      </c>
+      <c r="G24">
+        <v>639.2300193156135</v>
+      </c>
+      <c r="H24">
+        <v>1.5329506999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f>(D25/C25-1)*100</f>
+        <v>140</v>
+      </c>
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D25">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>0.2766039</v>
-      </c>
-      <c r="F6">
-        <v>361.5278020302678</v>
-      </c>
-      <c r="G6">
-        <v>0.023537965</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>1.5251896999999999</v>
+      </c>
+      <c r="G25">
+        <v>655.65614559290566</v>
+      </c>
+      <c r="H25">
+        <v>1.4883230000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f>(D26/C26-1)*100</f>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>1.4448795999999999</v>
+      </c>
+      <c r="G26">
+        <v>692.09918944111337</v>
+      </c>
+      <c r="H26">
+        <v>1.4132952000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f>(D27/C27-1)*100</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <v>1.4945214</v>
+      </c>
+      <c r="G27">
+        <v>669.11052595165245</v>
+      </c>
+      <c r="H27">
+        <v>1.4684716E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f>(D28/C28-1)*100</f>
+        <v>179.99999999999997</v>
+      </c>
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28">
+        <v>1.7170268</v>
+      </c>
+      <c r="G28">
+        <v>582.40209180194506</v>
+      </c>
+      <c r="H28">
+        <v>1.6543667000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f>(D29/C29-1)*100</f>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>0.2644725</v>
-      </c>
-      <c r="F7">
-        <v>378.11114577129945</v>
-      </c>
-      <c r="G7">
-        <v>0.023525414</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29">
+        <v>1.3511101000000001</v>
+      </c>
+      <c r="G29">
+        <v>740.13213282914546</v>
+      </c>
+      <c r="H29">
+        <v>1.3043902E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f>(D30/C30-1)*100</f>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>0.3859377</v>
-      </c>
-      <c r="F8">
-        <v>259.1091774656894</v>
-      </c>
-      <c r="G8">
-        <v>0.029385117</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>1.4483162000000001</v>
+      </c>
+      <c r="G30">
+        <v>690.45695960592025</v>
+      </c>
+      <c r="H30">
+        <v>1.4030173999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f>(D31/C31-1)*100</f>
+        <v>80</v>
+      </c>
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>0.3662348</v>
-      </c>
-      <c r="F9">
-        <v>273.04887465636796</v>
-      </c>
-      <c r="G9">
-        <v>0.031646274</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>0.3569899</v>
-      </c>
-      <c r="F10">
-        <v>280.11996978065764</v>
-      </c>
-      <c r="G10">
-        <v>0.028212178</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0.3666445</v>
-      </c>
-      <c r="F11">
-        <v>272.74376132738934</v>
-      </c>
-      <c r="G11">
-        <v>0.032620346</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>0.1292905</v>
-      </c>
-      <c r="F12">
-        <v>77.34520324385782</v>
-      </c>
-      <c r="G12">
-        <v>0.08300233</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>0.1306152</v>
-      </c>
-      <c r="F13">
-        <v>76.56076781262824</v>
-      </c>
-      <c r="G13">
-        <v>0.1062318</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
+      <c r="D31">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>0.1984046</v>
-      </c>
-      <c r="F14">
-        <v>50.402057210367104</v>
-      </c>
-      <c r="G14">
-        <v>0.14829344</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>0.1816282</v>
-      </c>
-      <c r="F15">
-        <v>55.057529612692306</v>
-      </c>
-      <c r="G15">
-        <v>0.12915812</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>0.1514128</v>
-      </c>
-      <c r="F16">
-        <v>66.04461445795864</v>
-      </c>
-      <c r="G16">
-        <v>0.12205357</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>0.1501848</v>
-      </c>
-      <c r="F17">
-        <v>66.58463439708945</v>
-      </c>
-      <c r="G17">
-        <v>0.10635916</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>0.1364345</v>
-      </c>
-      <c r="F18">
-        <v>73.29524423807761</v>
-      </c>
-      <c r="G18">
-        <v>0.08705996</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>0.1315197</v>
-      </c>
-      <c r="F19">
-        <v>76.03423669609953</v>
-      </c>
-      <c r="G19">
-        <v>0.10262504</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>0.2037494</v>
-      </c>
-      <c r="F20">
-        <v>49.07989913099131</v>
-      </c>
-      <c r="G20">
-        <v>0.14673756</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>0.1454809</v>
-      </c>
-      <c r="F21">
-        <v>68.7375456159537</v>
-      </c>
-      <c r="G21">
-        <v>0.08566317</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22">
-        <v>1.5172617000000002</v>
-      </c>
-      <c r="F22">
-        <v>659.0820818847533</v>
-      </c>
-      <c r="G22">
-        <v>0.01449599</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23">
-        <v>1.3069169999999999</v>
-      </c>
-      <c r="F23">
-        <v>765.1595319366112</v>
-      </c>
-      <c r="G23">
-        <v>0.012808795</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>1.5643821</v>
-      </c>
-      <c r="F24">
-        <v>639.2300193156135</v>
-      </c>
-      <c r="G24">
-        <v>0.015329507</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>1.4699865999999999</v>
+      </c>
+      <c r="G31">
+        <v>680.2783100199689</v>
+      </c>
+      <c r="H31">
+        <v>1.4173458999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="E25">
-        <v>1.5251896999999999</v>
-      </c>
-      <c r="F25">
-        <v>655.6561455929057</v>
-      </c>
-      <c r="G25">
-        <v>0.01488323</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B32" t="e">
+        <f>(D32/C32-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="E26">
-        <v>1.4448796</v>
-      </c>
-      <c r="F26">
-        <v>692.0991894411134</v>
-      </c>
-      <c r="G26">
-        <v>0.014132952</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B33" t="e">
+        <f>(D33/C33-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="E27">
-        <v>1.4945214</v>
-      </c>
-      <c r="F27">
-        <v>669.1105259516524</v>
-      </c>
-      <c r="G27">
-        <v>0.014684716</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B34" t="e">
+        <f>(D34/C34-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="E28">
-        <v>1.7170268</v>
-      </c>
-      <c r="F28">
-        <v>582.4020918019451</v>
-      </c>
-      <c r="G28">
-        <v>0.016543667</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B35" t="e">
+        <f>(D35/C35-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="E29">
-        <v>1.3511101</v>
-      </c>
-      <c r="F29">
-        <v>740.1321328291455</v>
-      </c>
-      <c r="G29">
-        <v>0.013043902</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B36" t="e">
+        <f>(D36/C36-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="E30">
-        <v>1.4483162</v>
-      </c>
-      <c r="F30">
-        <v>690.4569596059202</v>
-      </c>
-      <c r="G30">
-        <v>0.014030174</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B37" t="e">
+        <f>(D37/C37-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="E31">
-        <v>1.4699866</v>
-      </c>
-      <c r="F31">
-        <v>680.2783100199689</v>
-      </c>
-      <c r="G31">
-        <v>0.014173459</v>
+      <c r="B38" t="e">
+        <f>(D38/C38-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="e">
+        <f>(D39/C39-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="e">
+        <f>(D40/C40-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="e">
+        <f>(D41/C41-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="e">
+        <f>(D42/C42-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="e">
+        <f>(D43/C43-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="e">
+        <f>(D44/C44-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="e">
+        <f>(D45/C45-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="e">
+        <f>(D46/C46-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="e">
+        <f>(D47/C47-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="e">
+        <f>(D48/C48-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="e">
+        <f>(D49/C49-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="e">
+        <f>(D50/C50-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="e">
+        <f>(D51/C51-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="e">
+        <f>(D52/C52-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="e">
+        <f>(D53/C53-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="e">
+        <f>(D54/C54-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="e">
+        <f>(D55/C55-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="e">
+        <f>(D56/C56-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="e">
+        <f>(D57/C57-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="e">
+        <f>(D58/C58-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="e">
+        <f>(D59/C59-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="e">
+        <f>(D60/C60-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="e">
+        <f>(D61/C61-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="e">
+        <f>(D62/C62-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="e">
+        <f>(D63/C63-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="e">
+        <f>(D64/C64-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="e">
+        <f>(D65/C65-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="e">
+        <f>(D66/C66-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="e">
+        <f>(D67/C67-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="e">
+        <f>(D68/C68-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="e">
+        <f>(D69/C69-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="e">
+        <f>(D70/C70-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="e">
+        <f>(D71/C71-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="e">
+        <f>(D72/C72-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="e">
+        <f>(D73/C73-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="e">
+        <f>(D74/C74-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="e">
+        <f>(D75/C75-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="e">
+        <f>(D76/C76-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="e">
+        <f>(D77/C77-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="e">
+        <f>(D78/C78-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="e">
+        <f>(D79/C79-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="e">
+        <f>(D80/C80-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="e">
+        <f>(D81/C81-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="e">
+        <f>(D82/C82-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="e">
+        <f>(D83/C83-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="e">
+        <f>(D84/C84-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="e">
+        <f>(D85/C85-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="e">
+        <f>(D86/C86-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="e">
+        <f>(D87/C87-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="e">
+        <f>(D88/C88-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="e">
+        <f>(D89/C89-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="e">
+        <f>(D90/C90-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="e">
+        <f>(D91/C91-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="e">
+        <f>(D92/C92-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="e">
+        <f>(D93/C93-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="e">
+        <f>(D94/C94-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="e">
+        <f>(D95/C95-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="e">
+        <f>(D96/C96-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="e">
+        <f>(D97/C97-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="e">
+        <f>(D98/C98-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="e">
+        <f>(D99/C99-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="e">
+        <f>(D100/C100-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="e">
+        <f>(D101/C101-1)*100</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>